--- a/点对点前后端问题归结.xlsx
+++ b/点对点前后端问题归结.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="点对点前端问题归总" sheetId="1" r:id="rId1"/>
@@ -396,8 +396,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>商品秒杀结束时间</t>
+    <t>商品→商品管理→商品兑换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台→兑换商城→头部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击单劵/多劵专区时，头部默认首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加一个忘记密码页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>回复用户的评论后，在后台没有显示，</t>
     </r>
     <r>
       <rPr>
@@ -408,17 +428,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>设计不合理</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品→商品管理→商品兑换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>回复用户的评论后，在后台没有显示，</t>
+      <t>无法对管理员的回复进行操作</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>商品秒杀结束时间</t>
     </r>
     <r>
       <rPr>
@@ -429,24 +445,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>无法对管理员的回复进行操作</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前台→兑换商城→头部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击单劵/多劵专区时，头部默认首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加一个忘记密码页面</t>
+      <t>设计不合理</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1098,7 +1098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1183,7 +1183,7 @@
         <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
@@ -1194,13 +1194,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1251,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F294"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1312,7 +1312,7 @@
         <v>47</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>45</v>
@@ -1324,7 +1324,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>44</v>
@@ -1342,7 +1342,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>45</v>

--- a/点对点前后端问题归结.xlsx
+++ b/点对点前后端问题归结.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>问题位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,30 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>首页注册账号时，按要求填写信息，但显示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>昵称必填</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品→评论管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,10 +59,6 @@
   </si>
   <si>
     <t>问题追踪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -123,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商品详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>详情页中的搜索栏</t>
     </r>
@@ -152,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击分类时没有跳转到相应模块页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,6 +182,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>兑换商城→分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员尊享酒专区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“按…排序”时无效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换商城→单劵/多劵专区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在输入数量时，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建立规则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>只能输入数字</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在“按价格排序”和“按人气排序”两个下拉框中，设置只能打开一个，另一个在点击之后会自动隐藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>下架商品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，在前台仍可查看</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换商城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品→商品管理入会商品→商品基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在下架商品后，该商品详情页可以进行访问和正常操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品→商品管理→商品兑换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台→兑换商城→头部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击单劵/多劵专区时，头部默认首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加一个忘记密码页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>商品秒杀结束时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设计不合理</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>在添加商品数量时自动检测最高值，如达到最高值则</t>
     </r>
@@ -232,18 +341,6 @@
       </rPr>
       <t>弹出提示</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑换商城→分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员尊享酒专区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击“按…排序”时无效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -304,115 +401,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兑换商城→单劵/多劵专区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在输入数量时，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>建立规则</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>只能输入数字</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在“按价格排序”和“按人气排序”两个下拉框中，设置只能打开一个，另一个在点击之后会自动隐藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>设置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>下架商品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，在前台仍可查看</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑换商城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品→商品管理入会商品→商品基本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在下架商品后，该商品详情页可以进行访问和正常操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品→商品管理→商品兑换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前台→兑换商城→头部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击单劵/多劵专区时，头部默认首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加一个忘记密码页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -434,7 +423,14 @@
   </si>
   <si>
     <r>
-      <t>商品秒杀结束时间</t>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>首页注册账号时，按要求填写信息，但显示</t>
     </r>
     <r>
       <rPr>
@@ -445,8 +441,16 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>设计不合理</t>
-    </r>
+      <t>昵称必填</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +458,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,6 +556,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -580,7 +591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -621,18 +632,175 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -660,51 +828,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -749,26 +872,6 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -780,30 +883,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="B3:E8" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="B3:E8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="B3:E9" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <autoFilter ref="B3:E9"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="序号" dataDxfId="14"/>
-    <tableColumn id="2" name="问题位置" dataDxfId="13"/>
-    <tableColumn id="3" name="问题描述" dataDxfId="12"/>
-    <tableColumn id="5" name="问题追踪" dataDxfId="11"/>
+    <tableColumn id="1" name="序号" dataDxfId="26"/>
+    <tableColumn id="2" name="问题位置" dataDxfId="25"/>
+    <tableColumn id="3" name="问题描述" dataDxfId="24"/>
+    <tableColumn id="5" name="问题追踪" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="B3:F24" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="B3:F24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="B3:F23" totalsRowShown="0" headerRowDxfId="22">
+  <autoFilter ref="B3:F23"/>
   <sortState ref="B4:D7">
     <sortCondition ref="B2:B6"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="序号" dataDxfId="4"/>
-    <tableColumn id="2" name="问题位置" dataDxfId="3"/>
-    <tableColumn id="3" name="问题描述" dataDxfId="2"/>
-    <tableColumn id="4" name="解决状态" dataDxfId="1"/>
-    <tableColumn id="5" name="注释" dataDxfId="0"/>
+    <tableColumn id="1" name="序号" dataDxfId="21"/>
+    <tableColumn id="2" name="问题位置" dataDxfId="20"/>
+    <tableColumn id="3" name="问题描述" dataDxfId="19"/>
+    <tableColumn id="4" name="解决状态" dataDxfId="18"/>
+    <tableColumn id="5" name="注释" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1098,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1112,16 +1215,16 @@
   <sheetData>
     <row r="1" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>0</v>
@@ -1130,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -1138,13 +1241,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -1152,13 +1255,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -1166,13 +1269,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1180,13 +1283,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1194,17 +1297,28 @@
         <v>5</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="11"/>
+      <c r="E9" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" spans="2:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="11"/>
@@ -1231,11 +1345,11 @@
     <mergeCell ref="B2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F2 F6:F1048576 E3:E8">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+  <conditionalFormatting sqref="F1:F2 E3:E9 F6:F1048576">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"未解决"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1249,10 +1363,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F294"/>
+  <dimension ref="B2:F293"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1264,29 +1378,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -1297,10 +1411,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -1309,13 +1423,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -1324,13 +1438,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -1339,13 +1453,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -1354,13 +1468,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -1372,13 +1486,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -1386,45 +1500,45 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="1">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>20</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="1">
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -1433,13 +1547,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -1448,13 +1562,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -1463,13 +1577,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -1478,13 +1592,13 @@
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -1492,14 +1606,14 @@
       <c r="B17" s="1">
         <v>14</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>30</v>
+      <c r="C17" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -1507,15 +1621,9 @@
       <c r="B18" s="1">
         <v>15</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>50</v>
-      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -1537,9 +1645,7 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="1">
-        <v>18</v>
-      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="3"/>
       <c r="E21" s="1"/>
@@ -1559,13 +1665,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
+    <row r="24" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1835,40 +1935,45 @@
     <row r="291" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="292" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="293" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E1 E3:E8 E10:E1048576">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"未解决"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:E1 B9 B3:E8 B2 B10:E1048576">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+  <conditionalFormatting sqref="B1:E1 B3:E5 B2 B18:E1048576 C10:E17 C6:E8 B6:B20">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"未解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"未解决"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E23">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"解决中"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1"/>
-    <hyperlink ref="F11" location="后台问题归总!8:8" display="关联问题5"/>
+    <hyperlink ref="F10" location="后台问题归总!8:8" display="关联问题5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/点对点前后端问题归结.xlsx
+++ b/点对点前后端问题归结.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
   <si>
     <t>问题位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,18 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击分类时没有跳转到相应模块页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示Invalid argument supplied for foreach()错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的账户→会员中心→产品兑换记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我的账户→会员中心→个人信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,18 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兑换商城→分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员尊享酒专区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击“按…排序”时无效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>兑换商城→单劵/多劵专区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,34 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>设置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>下架商品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，在前台仍可查看</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>兑换商城</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,10 +219,6 @@
   </si>
   <si>
     <t>商品详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在下架商品后，该商品详情页可以进行访问和正常操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -446,11 +390,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>下架商品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，在前台仍可查看</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台→兑换商城→二级分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在鼠标放上二级导航时，右侧LOGO图显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>未解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>未解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换商城→分类</t>
+  </si>
+  <si>
+    <t>兑换商城→分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类页面显示时只有目录，并没有相应商品，商品数据库中没有类似分类ID的选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“按…排序”时无效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员尊享酒专区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击分类时没有跳转到相应模块页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示Invalid argument supplied for foreach()错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在下架商品后，该商品详情页可以进行访问和正常操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的账户→会员中心→产品兑换记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,7 +497,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,6 +602,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -591,7 +637,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -623,9 +669,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -635,21 +678,27 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="20">
     <dxf>
       <font>
         <b/>
@@ -703,81 +752,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -883,30 +857,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="B3:E9" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
-  <autoFilter ref="B3:E9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="B3:E13" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="B3:E13"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="序号" dataDxfId="26"/>
-    <tableColumn id="2" name="问题位置" dataDxfId="25"/>
-    <tableColumn id="3" name="问题描述" dataDxfId="24"/>
-    <tableColumn id="5" name="问题追踪" dataDxfId="23"/>
+    <tableColumn id="1" name="序号" dataDxfId="17"/>
+    <tableColumn id="2" name="问题位置" dataDxfId="16"/>
+    <tableColumn id="3" name="问题描述" dataDxfId="15"/>
+    <tableColumn id="5" name="问题追踪" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="B3:F23" totalsRowShown="0" headerRowDxfId="22">
-  <autoFilter ref="B3:F23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="B3:F24" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="B3:F24"/>
   <sortState ref="B4:D7">
     <sortCondition ref="B2:B6"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="序号" dataDxfId="21"/>
-    <tableColumn id="2" name="问题位置" dataDxfId="20"/>
-    <tableColumn id="3" name="问题描述" dataDxfId="19"/>
-    <tableColumn id="4" name="解决状态" dataDxfId="18"/>
-    <tableColumn id="5" name="注释" dataDxfId="17"/>
+    <tableColumn id="1" name="序号" dataDxfId="12"/>
+    <tableColumn id="2" name="问题位置" dataDxfId="11"/>
+    <tableColumn id="3" name="问题描述" dataDxfId="10"/>
+    <tableColumn id="4" name="解决状态" dataDxfId="9"/>
+    <tableColumn id="5" name="注释" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1202,7 +1176,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1215,12 +1189,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -1241,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>15</v>
@@ -1258,7 +1232,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -1272,69 +1246,98 @@
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
         <v>5</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>50</v>
+      <c r="C9" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="2:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="2:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="2:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="D10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="15"/>
+    </row>
     <row r="14" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="2:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="2:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="4"/>
-      <c r="C20" s="12"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
@@ -1345,11 +1348,11 @@
     <mergeCell ref="B2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F2 E3:E9 F6:F1048576">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+  <conditionalFormatting sqref="F1:F2 E3:E13 F6:F1048576">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"未解决"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1363,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F293"/>
+  <dimension ref="B2:F294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1378,13 +1381,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -1411,10 +1414,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -1423,13 +1426,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -1438,13 +1441,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -1456,10 +1459,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -1468,13 +1471,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -1486,10 +1489,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>9</v>
@@ -1506,7 +1509,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>17</v>
@@ -1517,13 +1520,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -1532,55 +1535,53 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="1">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>11</v>
+      <c r="D13" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>11</v>
+        <v>65</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>11</v>
@@ -1589,46 +1590,52 @@
     </row>
     <row r="16" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1">
-        <v>14</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>41</v>
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>43</v>
+        <v>24</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="1">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="3"/>
@@ -1637,7 +1644,7 @@
     </row>
     <row r="20" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="3"/>
@@ -1645,7 +1652,9 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="1"/>
+      <c r="B21" s="1">
+        <v>17</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="3"/>
       <c r="E21" s="1"/>
@@ -1665,7 +1674,13 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
     <row r="25" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1935,33 +1950,34 @@
     <row r="291" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="292" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="293" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E1 E3:E8 E10:E1048576">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"未解决"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:E1 B3:E5 B2 B18:E1048576 C10:E17 C6:E8 B6:B20">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+  <conditionalFormatting sqref="B1:E1 B3:E5 B2 B19:E1048576 C10:E18 C6:E8 B6:B21">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"未解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"未解决"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E23">
+  <conditionalFormatting sqref="E4:E24">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"解决中"</formula>
     </cfRule>

--- a/点对点前后端问题归结.xlsx
+++ b/点对点前后端问题归结.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t>问题位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,23 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我的账户→会员中心→个人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示Can't use method return value in write context错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的账户→会员中心→地址管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示Can't use method return value in write context
-错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>admin→系统→广告位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,44 +205,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>商品→商品管理→商品兑换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台→兑换商城→头部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击单劵/多劵专区时，头部默认首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>未解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商品→商品管理→商品兑换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前台→兑换商城→头部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击单劵/多劵专区时，头部默认首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加一个忘记密码页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>商品秒杀结束时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>设计不合理</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -345,10 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>回复用户的评论后，在后台没有显示，</t>
     </r>
@@ -438,58 +396,113 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换商城→分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员尊享酒专区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击分类时没有跳转到相应模块页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台→我的账户→会员中心→个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在用户头像中设置一个预览框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>未解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>在修改头像中，预览框编辑后，头像为未编辑的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>已解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>未解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的账户→会员中心→地址管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示Can't use method return value in write context
+错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的账户→会员中心→个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示Can't use method return value in write context错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的账户→会员中心→产品兑换记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示Invalid argument supplied for foreach()错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“按…排序”时无效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>商品秒杀结束时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设计不合理</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在下架商品后，该商品详情页可以进行访问和正常操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类页面显示时只有目录，并没有相应商品，商品数据库中没有类似分类ID的选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>兑换商城→分类</t>
-  </si>
-  <si>
-    <t>兑换商城→分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类页面显示时只有目录，并没有相应商品，商品数据库中没有类似分类ID的选项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击“按…排序”时无效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员尊享酒专区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击分类时没有跳转到相应模块页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示Invalid argument supplied for foreach()错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在下架商品后，该商品详情页可以进行访问和正常操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的账户→会员中心→产品兑换记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,77 +697,21 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FFFFFF00"/>
@@ -802,6 +759,62 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -845,6 +858,26 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -870,17 +903,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="B3:F24" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="B3:F24" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B3:F24"/>
   <sortState ref="B4:D7">
     <sortCondition ref="B2:B6"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="序号" dataDxfId="12"/>
-    <tableColumn id="2" name="问题位置" dataDxfId="11"/>
-    <tableColumn id="3" name="问题描述" dataDxfId="10"/>
-    <tableColumn id="4" name="解决状态" dataDxfId="9"/>
-    <tableColumn id="5" name="注释" dataDxfId="8"/>
+    <tableColumn id="1" name="序号" dataDxfId="6"/>
+    <tableColumn id="2" name="问题位置" dataDxfId="5"/>
+    <tableColumn id="3" name="问题描述" dataDxfId="4"/>
+    <tableColumn id="4" name="解决状态" dataDxfId="3"/>
+    <tableColumn id="5" name="注释" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1175,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1189,12 +1222,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -1215,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>15</v>
@@ -1232,7 +1265,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -1246,7 +1279,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -1257,10 +1290,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -1271,13 +1304,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -1285,13 +1318,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -1299,28 +1332,42 @@
         <v>7</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="15"/>
+      <c r="C11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="15"/>
+      <c r="C12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="1">
@@ -1348,11 +1395,11 @@
     <mergeCell ref="B2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F2 E3:E13 F6:F1048576">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+  <conditionalFormatting sqref="F1:F2 F6:F1048576 E3:E13">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
       <formula>"未解决"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1368,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1381,13 +1428,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -1414,10 +1461,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -1426,13 +1473,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -1441,13 +1488,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -1459,10 +1506,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -1471,13 +1518,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -1489,10 +1536,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>9</v>
@@ -1509,7 +1556,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>17</v>
@@ -1520,13 +1567,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -1535,26 +1582,26 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>60</v>
+        <v>71</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -1563,13 +1610,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -1578,13 +1625,13 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -1593,13 +1640,13 @@
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -1608,13 +1655,13 @@
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -1623,13 +1670,13 @@
         <v>14</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -1957,28 +2004,28 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E1 E3:E8 E10:E1048576">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>"未解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:E1 B3:E5 B2 B19:E1048576 C10:E18 C6:E8 B6:B21">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>"未解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"未解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E24">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"解决中"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/点对点前后端问题归结.xlsx
+++ b/点对点前后端问题归结.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
   <si>
     <t>问题位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,23 +91,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>创建搜索栏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>详情页中的搜索栏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>无法进行搜索</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -308,6 +291,213 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>首页注册账号时，按要求填写信息，但显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>昵称必填</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>下架商品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，在前台仍可查看</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台→兑换商城→二级分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在鼠标放上二级导航时，右侧LOGO图显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换商城→分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员尊享酒专区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击分类时没有跳转到相应模块页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台→我的账户→会员中心→个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在用户头像中设置一个预览框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在修改头像中，预览框编辑后，头像为未编辑的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的账户→会员中心→地址管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示Can't use method return value in write context
+错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的账户→会员中心→个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示Can't use method return value in write context错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的账户→会员中心→产品兑换记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示Invalid argument supplied for foreach()错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“按…排序”时无效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>商品秒杀结束时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设计不合理</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在下架商品后，该商品详情页可以进行访问和正常操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类页面显示时只有目录，并没有相应商品，商品数据库中没有类似分类ID的选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换商城→分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法进行条件查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin→商品管理→列表页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>详情页中的搜索栏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无法进行搜索</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>回复用户的评论后，在后台没有显示，</t>
     </r>
     <r>
@@ -321,188 +511,6 @@
       </rPr>
       <t>无法对管理员的回复进行操作</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>首页注册账号时，按要求填写信息，但显示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>昵称必填</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>设置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>下架商品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，在前台仍可查看</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前台→兑换商城→二级分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在鼠标放上二级导航时，右侧LOGO图显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑换商城→分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员尊享酒专区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击分类时没有跳转到相应模块页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前台→我的账户→会员中心→个人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在用户头像中设置一个预览框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在修改头像中，预览框编辑后，头像为未编辑的状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的账户→会员中心→地址管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示Can't use method return value in write context
-错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的账户→会员中心→个人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示Can't use method return value in write context错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的账户→会员中心→产品兑换记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示Invalid argument supplied for foreach()错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击“按…排序”时无效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>商品秒杀结束时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>设计不合理</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在下架商品后，该商品详情页可以进行访问和正常操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类页面显示时只有目录，并没有相应商品，商品数据库中没有类似分类ID的选项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑换商城→分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -711,16 +719,26 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFF00"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -890,30 +908,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="B3:E13" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="B3:E13" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="B3:E13"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="序号" dataDxfId="17"/>
-    <tableColumn id="2" name="问题位置" dataDxfId="16"/>
-    <tableColumn id="3" name="问题描述" dataDxfId="15"/>
-    <tableColumn id="5" name="问题追踪" dataDxfId="14"/>
+    <tableColumn id="1" name="序号" dataDxfId="19"/>
+    <tableColumn id="2" name="问题位置" dataDxfId="18"/>
+    <tableColumn id="3" name="问题描述" dataDxfId="17"/>
+    <tableColumn id="5" name="问题追踪" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="B3:F24" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="B3:F24" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="B3:F24"/>
   <sortState ref="B4:D7">
     <sortCondition ref="B2:B6"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="序号" dataDxfId="6"/>
-    <tableColumn id="2" name="问题位置" dataDxfId="5"/>
-    <tableColumn id="3" name="问题描述" dataDxfId="4"/>
-    <tableColumn id="4" name="解决状态" dataDxfId="3"/>
-    <tableColumn id="5" name="注释" dataDxfId="2"/>
+    <tableColumn id="1" name="序号" dataDxfId="8"/>
+    <tableColumn id="2" name="问题位置" dataDxfId="7"/>
+    <tableColumn id="3" name="问题描述" dataDxfId="6"/>
+    <tableColumn id="4" name="解决状态" dataDxfId="5"/>
+    <tableColumn id="5" name="注释" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1248,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>15</v>
@@ -1265,7 +1283,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -1276,10 +1294,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -1290,10 +1308,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -1304,13 +1322,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -1318,13 +1336,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -1332,13 +1350,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -1346,13 +1364,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -1360,13 +1378,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -1396,10 +1414,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1:F2 F6:F1048576 E3:E13">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
       <formula>"未解决"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1415,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1461,10 +1479,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -1473,13 +1491,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -1488,13 +1506,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -1506,10 +1524,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -1518,13 +1536,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -1536,10 +1554,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>9</v>
@@ -1553,13 +1571,13 @@
         <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -1567,13 +1585,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -1582,26 +1600,26 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -1610,13 +1628,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -1625,13 +1643,13 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -1640,13 +1658,13 @@
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -1655,13 +1673,13 @@
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -1670,13 +1688,13 @@
         <v>14</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -1684,9 +1702,15 @@
       <c r="B19" s="1">
         <v>15</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -1708,14 +1732,18 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="1"/>
+      <c r="B22" s="1">
+        <v>18</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="3"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="1"/>
+      <c r="B23" s="1">
+        <v>19</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="3"/>
       <c r="E23" s="1"/>
@@ -2004,28 +2032,28 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E1 E3:E8 E10:E1048576">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"未解决"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:E1 B3:E5 B2 B19:E1048576 C10:E18 C6:E8 B6:B21">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+  <conditionalFormatting sqref="B1:E1 B3:E5 B2 C10:E18 C6:E8 B6:B21 B19:E1048576">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>"未解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"未解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E24">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"解决中"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/点对点前后端问题归结.xlsx
+++ b/点对点前后端问题归结.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="点对点前端问题归总" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
   <si>
     <t>问题位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -511,6 +511,30 @@
       </rPr>
       <t>无法对管理员的回复进行操作</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信端→兑换商城→分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当图片尺寸小的时候，字体显示位置有所变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信端→兑换商城→分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当图片尺寸小的时候，字体显示位置有所变化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -719,26 +743,16 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FFFFFF00"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -908,30 +922,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="B3:E13" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="B3:E13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="B3:E17" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="B3:E17"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="序号" dataDxfId="19"/>
-    <tableColumn id="2" name="问题位置" dataDxfId="18"/>
-    <tableColumn id="3" name="问题描述" dataDxfId="17"/>
-    <tableColumn id="5" name="问题追踪" dataDxfId="16"/>
+    <tableColumn id="1" name="序号" dataDxfId="17"/>
+    <tableColumn id="2" name="问题位置" dataDxfId="16"/>
+    <tableColumn id="3" name="问题描述" dataDxfId="15"/>
+    <tableColumn id="5" name="问题追踪" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="B3:F24" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="B3:F24" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B3:F24"/>
   <sortState ref="B4:D7">
     <sortCondition ref="B2:B6"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="序号" dataDxfId="8"/>
-    <tableColumn id="2" name="问题位置" dataDxfId="7"/>
-    <tableColumn id="3" name="问题描述" dataDxfId="6"/>
-    <tableColumn id="4" name="解决状态" dataDxfId="5"/>
-    <tableColumn id="5" name="注释" dataDxfId="4"/>
+    <tableColumn id="1" name="序号" dataDxfId="6"/>
+    <tableColumn id="2" name="问题位置" dataDxfId="5"/>
+    <tableColumn id="3" name="问题描述" dataDxfId="4"/>
+    <tableColumn id="4" name="解决状态" dataDxfId="3"/>
+    <tableColumn id="5" name="注释" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1226,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1391,13 +1405,38 @@
       <c r="B13" s="1">
         <v>10</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="2:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="C13" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="2:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="13"/>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="13"/>
+      <c r="D17" s="15"/>
+    </row>
     <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -1413,11 +1452,11 @@
     <mergeCell ref="B2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F2 F6:F1048576 E3:E13">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
+  <conditionalFormatting sqref="F1:F2 F6:F1048576 E3:E17">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
       <formula>"未解决"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1433,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1557,7 +1596,7 @@
         <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>9</v>
@@ -1664,7 +1703,7 @@
         <v>58</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -1717,9 +1756,15 @@
       <c r="B20" s="1">
         <v>16</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -2032,28 +2077,28 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E1 E3:E8 E10:E1048576">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>"未解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:E1 B3:E5 B2 C10:E18 C6:E8 B6:B21 B19:E1048576">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>"未解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"未解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E24">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"解决中"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/点对点前后端问题归结.xlsx
+++ b/点对点前后端问题归结.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="点对点前端问题归总" sheetId="1" r:id="rId1"/>
     <sheet name="后端问题归总" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="86">
   <si>
     <t>问题位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,23 +74,6 @@
   </si>
   <si>
     <t>商品详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在页面头部</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>创建搜索栏</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -168,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在“按价格排序”和“按人气排序”两个下拉框中，设置只能打开一个，另一个在点击之后会自动隐藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,40 +174,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击单劵/多劵专区时，头部默认首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加一个忘记密码页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品详情页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>未解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在添加商品数量时自动检测最高值，如达到最高值则</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>弹出提示</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -354,10 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在鼠标放上二级导航时，右侧LOGO图显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -386,15 +335,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在用户头像中设置一个预览框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在修改头像中，预览框编辑后，头像为未编辑的状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -530,11 +471,93 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微信端→兑换商城→分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当图片尺寸小的时候，字体显示位置有所变化</t>
+    <t>PC端→兑换商城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消单劵与多劵的结构，转而实行积分制度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC端→首页→商品充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品充值内分类区，没有和兑换商城进行同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC端→我的账户→会员中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待转换的兑换券改为积分，并全部实行12月返积分的方式(四舍五入)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在页面头部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创建搜索栏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在“按价格排序”和“按人气排序”两个下拉框中，设置只能打开一个，另一个在点击之后会自动隐藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加一个忘记密码页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击单劵/多劵专区时，头部默认首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在添加商品数量时自动检测最高值，如达到最高值则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>弹出提示</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在鼠标放上二级导航时，右侧LOGO图显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在用户头像中设置一个预览框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在修改头像中，预览框编辑后，头像为未编辑的状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -743,27 +766,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -922,30 +925,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="B3:E17" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="B3:E17" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="B3:E17"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="序号" dataDxfId="17"/>
-    <tableColumn id="2" name="问题位置" dataDxfId="16"/>
-    <tableColumn id="3" name="问题描述" dataDxfId="15"/>
-    <tableColumn id="5" name="问题追踪" dataDxfId="14"/>
+    <tableColumn id="1" name="序号" dataDxfId="15"/>
+    <tableColumn id="2" name="问题位置" dataDxfId="14"/>
+    <tableColumn id="3" name="问题描述" dataDxfId="13"/>
+    <tableColumn id="5" name="问题追踪" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="B3:F24" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="B3:F24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="B3:F27" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="B3:F27"/>
   <sortState ref="B4:D7">
     <sortCondition ref="B2:B6"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="序号" dataDxfId="6"/>
-    <tableColumn id="2" name="问题位置" dataDxfId="5"/>
-    <tableColumn id="3" name="问题描述" dataDxfId="4"/>
-    <tableColumn id="4" name="解决状态" dataDxfId="3"/>
-    <tableColumn id="5" name="注释" dataDxfId="2"/>
+    <tableColumn id="1" name="序号" dataDxfId="4"/>
+    <tableColumn id="2" name="问题位置" dataDxfId="3"/>
+    <tableColumn id="3" name="问题描述" dataDxfId="2"/>
+    <tableColumn id="4" name="解决状态" dataDxfId="1"/>
+    <tableColumn id="5" name="注释" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1240,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1280,10 +1283,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -1297,7 +1300,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -1308,10 +1311,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -1322,10 +1325,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -1336,13 +1339,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -1350,13 +1353,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -1364,13 +1367,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -1378,13 +1381,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -1392,13 +1395,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -1406,13 +1409,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -1453,10 +1456,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1:F2 F6:F1048576 E3:E17">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>"未解决"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1470,10 +1473,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F294"/>
+  <dimension ref="B2:F293"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1518,10 +1521,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -1530,13 +1533,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -1545,13 +1548,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -1563,10 +1566,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -1575,13 +1578,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -1593,10 +1596,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>9</v>
@@ -1610,13 +1613,13 @@
         <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -1624,13 +1627,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -1639,26 +1642,26 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -1667,13 +1670,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -1682,13 +1685,13 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -1697,13 +1700,13 @@
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -1712,13 +1715,13 @@
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -1727,13 +1730,13 @@
         <v>14</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -1742,13 +1745,13 @@
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1757,13 +1760,13 @@
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -1771,24 +1774,34 @@
       <c r="B21" s="1">
         <v>17</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="1">
         <v>18</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="1">
-        <v>19</v>
-      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="3"/>
       <c r="E23" s="1"/>
@@ -1797,13 +1810,31 @@
     <row r="24" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
     <row r="28" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="29" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2070,35 +2101,34 @@
     <row r="291" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="292" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="293" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E1 E3:E8 E10:E1048576">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"未解决"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:E1 B3:E5 B2 C10:E18 C6:E8 B6:B21 B19:E1048576">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+  <conditionalFormatting sqref="B1:E1 B3:E5 B2 C10:E18 C6:E8 B6:B19 B19:E1048576">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"未解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"未解决"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E24">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+  <conditionalFormatting sqref="E4:E27">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"解决中"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2112,17 +2142,4 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>